--- a/1/data.xlsx
+++ b/1/data.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44932.70344955922</v>
+        <v>44932.70344956018</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -496,6 +496,32 @@
       </c>
       <c r="C5" t="n">
         <v>-0.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44932.71535248843</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Днепр, UA</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44932.71895906192</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>111, PH</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>24.7</v>
       </c>
     </row>
   </sheetData>
